--- a/biology/Zoologie/Atractaspis_reticulata/Atractaspis_reticulata.xlsx
+++ b/biology/Zoologie/Atractaspis_reticulata/Atractaspis_reticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis reticulata est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis reticulata est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en République centrafricaine ;
 en République démocratique du Congo ;
 en République du Congo ;
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Atractaspis reticulata brieni Laurent, 1956
 Atractaspis reticulata heterochilus Boulenger, 1901
 Atractaspis reticulata reticulata Sjöstedt, 1896</t>
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1901 : Matériaux pour la faune du Congo batraciens et reptiles nouveaux. Annales du Musée royal du Congo belge, Tervuren, Belgique, vol. 2, p. 7-14.
 Laurent, 1956 : Notes herpétologiques africaines. Revue de Zoologie et de Botanique Africaines, Tervuren, vol. 53, p. 229-256.
